--- a/docs/public/help/help_linked_docs/family_history_template_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/family_history_template_with_metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/Documents/help_linked_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC1FD393-B440-F340-BAB6-D7FCEC8EA94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE18F75-BFFE-0D4E-B6C3-C0422C52C2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{265770E1-D1B3-004D-B7B5-9ABB68F7FE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
-  <si>
-    <t>Individual ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>Mother ID</t>
   </si>
@@ -36,12 +33,6 @@
     <t>Father ID</t>
   </si>
   <si>
-    <t>MONDO terms</t>
-  </si>
-  <si>
-    <t>Proband</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -51,69 +42,27 @@
     <t>Clinical Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Family ID </t>
-  </si>
-  <si>
     <t>Ancestry</t>
   </si>
   <si>
-    <t>Life status</t>
-  </si>
-  <si>
     <t>Deceased</t>
   </si>
   <si>
-    <t>Cause of death</t>
-  </si>
-  <si>
-    <t>Age at death</t>
-  </si>
-  <si>
-    <t>Age at death units</t>
-  </si>
-  <si>
     <t>Pregnancy</t>
   </si>
   <si>
-    <t>Gestational age</t>
-  </si>
-  <si>
-    <t>Is termination of pregnancy</t>
-  </si>
-  <si>
-    <t>Spontaneous abortion</t>
-  </si>
-  <si>
-    <t>Still birth</t>
-  </si>
-  <si>
-    <t>No children by choice</t>
-  </si>
-  <si>
     <t>Infertile</t>
   </si>
   <si>
-    <t>Cause of infertility</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>Gestational age units</t>
-  </si>
-  <si>
-    <t>HPO terms</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
@@ -190,13 +139,85 @@
   </si>
   <si>
     <t>Age Units</t>
+  </si>
+  <si>
+    <t>Family ID*</t>
+  </si>
+  <si>
+    <t>Individual ID*</t>
+  </si>
+  <si>
+    <t>Sex*</t>
+  </si>
+  <si>
+    <t>Proband*</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Diagnosis Age of Onset</t>
+  </si>
+  <si>
+    <t>Diagnosis Age of Onset Units</t>
+  </si>
+  <si>
+    <t>Diagnostic Confidence</t>
+  </si>
+  <si>
+    <t>MONDO:0007254</t>
+  </si>
+  <si>
+    <t>MONDO:0024883</t>
+  </si>
+  <si>
+    <t>definite</t>
+  </si>
+  <si>
+    <t>HPO Terms</t>
+  </si>
+  <si>
+    <t>MONDO Terms</t>
+  </si>
+  <si>
+    <t>Life Status</t>
+  </si>
+  <si>
+    <t>Cause of Death</t>
+  </si>
+  <si>
+    <t>Age at Death</t>
+  </si>
+  <si>
+    <t>Age at Death Units</t>
+  </si>
+  <si>
+    <t>Gestational Age</t>
+  </si>
+  <si>
+    <t>Gestational Age Units</t>
+  </si>
+  <si>
+    <t>Is Termination of Pregnancy</t>
+  </si>
+  <si>
+    <t>Spontaneous Abortion</t>
+  </si>
+  <si>
+    <t>Still Birth</t>
+  </si>
+  <si>
+    <t>No Children by Choice</t>
+  </si>
+  <si>
+    <t>Cause of Infertility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -206,6 +227,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,9 +260,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,417 +580,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC60BD-0E12-D44C-BBC2-53BF1D50CDD5}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="19" max="20" width="15.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" customWidth="1"/>
+    <col min="25" max="25" width="24.28515625" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="P13" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2">
+      <c r="R13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>72</v>
+      </c>
+      <c r="U13" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>72</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/public/help/help_linked_docs/family_history_template_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/family_history_template_with_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE18F75-BFFE-0D4E-B6C3-C0422C52C2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA3F56-AEAB-E948-A2CD-41DE93ACC4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{265770E1-D1B3-004D-B7B5-9ABB68F7FE7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
   <si>
     <t>Mother ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Infertile</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -192,12 +189,6 @@
     <t>Age at Death Units</t>
   </si>
   <si>
-    <t>Gestational Age</t>
-  </si>
-  <si>
-    <t>Gestational Age Units</t>
-  </si>
-  <si>
     <t>Is Termination of Pregnancy</t>
   </si>
   <si>
@@ -211,6 +202,9 @@
   </si>
   <si>
     <t>Cause of Infertility</t>
+  </si>
+  <si>
+    <t>Gestational Age (Weeks)</t>
   </si>
 </sst>
 </file>
@@ -580,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC60BD-0E12-D44C-BBC2-53BF1D50CDD5}">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -605,27 +599,26 @@
     <col min="19" max="19" width="13.42578125" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" customWidth="1"/>
-    <col min="25" max="25" width="24.28515625" customWidth="1"/>
-    <col min="26" max="26" width="20.5703125" customWidth="1"/>
-    <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="24.28515625" customWidth="1"/>
+    <col min="25" max="25" width="20.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" customWidth="1"/>
+    <col min="29" max="29" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -634,28 +627,28 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>4</v>
@@ -664,337 +657,331 @@
         <v>5</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2">
         <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" t="s">
         <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" t="s">
-        <v>12</v>
       </c>
       <c r="R11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R13" t="s">
         <v>2</v>
@@ -1003,24 +990,24 @@
         <v>72</v>
       </c>
       <c r="U13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R14" t="s">
         <v>2</v>

--- a/docs/public/help/help_linked_docs/family_history_template_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/family_history_template_with_metadata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA3F56-AEAB-E948-A2CD-41DE93ACC4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FC5ED9-71EC-8E44-94A9-04E2AA43BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{265770E1-D1B3-004D-B7B5-9ABB68F7FE7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,9 +39,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Clinical Notes</t>
-  </si>
-  <si>
     <t>Ancestry</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Gestational Age (Weeks)</t>
+  </si>
+  <si>
+    <t>Clinic Notes</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -609,16 +609,16 @@
   <sheetData>
     <row r="1" spans="1:29" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -627,180 +627,180 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2">
         <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5" t="s">
         <v>2</v>
@@ -808,88 +808,88 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" t="s">
         <v>2</v>
@@ -897,45 +897,45 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" t="s">
         <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" t="s">
-        <v>11</v>
       </c>
       <c r="R11" t="s">
         <v>2</v>
@@ -943,22 +943,22 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R12" t="s">
         <v>2</v>
@@ -966,22 +966,22 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R13" t="s">
         <v>2</v>
@@ -990,24 +990,24 @@
         <v>72</v>
       </c>
       <c r="U13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R14" t="s">
         <v>2</v>

--- a/docs/public/help/help_linked_docs/family_history_template_with_metadata.xlsx
+++ b/docs/public/help/help_linked_docs/family_history_template_with_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal/docs/public/help/help_linked_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/cgap-portal-2/docs/public/help/help_linked_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FC5ED9-71EC-8E44-94A9-04E2AA43BDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB3FA2E-F952-BB4C-9019-1449819035DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{265770E1-D1B3-004D-B7B5-9ABB68F7FE7E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>Mother ID</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Clinic Notes</t>
+  </si>
+  <si>
+    <t>Birth Year</t>
   </si>
 </sst>
 </file>
@@ -254,12 +257,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBC60BD-0E12-D44C-BBC2-53BF1D50CDD5}">
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="94" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -592,22 +594,22 @@
     <col min="10" max="10" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22" customWidth="1"/>
-    <col min="24" max="24" width="24.28515625" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="28" max="28" width="8.5703125" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="24.28515625" customWidth="1"/>
+    <col min="26" max="26" width="20.5703125" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1"/>
+    <col min="29" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -638,10 +640,10 @@
       <c r="J1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -651,52 +653,55 @@
         <v>35</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -740,7 +745,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,8 +767,11 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -783,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -802,11 +810,11 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -825,11 +833,11 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -852,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -872,7 +880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -891,11 +899,11 @@
       <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -918,7 +926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,14 +942,14 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>10</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,14 +965,14 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>19</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,20 +988,20 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>18</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>2</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>72</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,10 +1014,10 @@
       <c r="D14" t="s">
         <v>3</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>18</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>2</v>
       </c>
     </row>
